--- a/计划.xlsx
+++ b/计划.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>数组</t>
   </si>
@@ -258,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,12 +370,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,64 +683,64 @@
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1317,7 +1311,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1390,10 +1384,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
